--- a/application/views/rpt/xlsx/TPL_TaxInvoiceReg.xlsx
+++ b/application/views/rpt/xlsx/TPL_TaxInvoiceReg.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,7 +120,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -130,13 +138,13 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF0070C0"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,12 +153,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -160,9 +174,77 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -174,6 +256,100 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -181,19 +357,21 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -201,11 +379,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -214,52 +394,70 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,93 +779,104 @@
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="10" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="2" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -675,7 +884,7 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
